--- a/_book/excel/Cap3/Tabla Mortalidad_Ejemplo.xlsx
+++ b/_book/excel/Cap3/Tabla Mortalidad_Ejemplo.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redescolmex-my.sharepoint.com/personal/agpena_colmex_mx/Documents/DEP_22_26/6to semestre/UNAM/test/ciencias_unam_2025-2/excel/Cap3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{EF8EC6B2-3278-4A00-8FF8-81650D2F1D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C500A79-9D0E-4352-A57F-B26EDF53786E}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{EF8EC6B2-3278-4A00-8FF8-81650D2F1D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB76A0C-0FA6-435B-9A04-33DC3146329D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA1FD95C-5C7D-4022-A558-3323BFE15373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AA1FD95C-5C7D-4022-A558-3323BFE15373}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla mortalidad 1998" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabla mortalidad 2018" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabla mortalidad 1998_IMRadj" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabla mortalidad 2018" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk25056703" localSheetId="1">'Tabla mortalidad 2018'!$B$4</definedName>
+    <definedName name="_Hlk25056703" localSheetId="2">'Tabla mortalidad 2018'!$B$4</definedName>
   </definedNames>
   <calcPr calcId="191028" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>Guatemala: tabla de mortalidad femenina, 1998</t>
   </si>
@@ -395,7 +397,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -430,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +448,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,14 +538,18 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,6 +565,1758 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabla mortalidad 1998'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nqx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabla mortalidad 1998'!$H$5:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.574197216833902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2329154277619726E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4853720803031119E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5131047220755504E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0836296176954114E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2779444124459487E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4209292690003651E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1667606804619542E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4272581262497452E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8003132051740506E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3527521173513588E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4175569004741564E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8901001941138403E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5630892552127932E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10510944304076733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15177182848255941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25153060669660821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40402458599224833</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1837-41CE-98C8-B51CBDB98967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="968131592"/>
+        <c:axId val="968137712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="968131592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968137712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="968137712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968131592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabla mortalidad 1998_IMRadj'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nqx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabla mortalidad 1998_IMRadj'!$H$5:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.4040000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2329154277619726E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4853720803031119E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5131047220755504E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0836296176954114E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2779444124459487E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4209292690003651E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1667606804619542E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4272581262497452E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8003132051740506E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3527521173513588E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4175569004741564E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8901001941138403E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5630892552127932E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10510944304076733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15177182848255941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25153060669660821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40402458599224833</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C913-4739-BF35-4B543187FC68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="968131592"/>
+        <c:axId val="968137712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="968131592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968137712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="968137712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968131592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,10 +2477,245 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B43CB24-4B89-ED8E-3BFD-FCC5E8D79799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="174791" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51ACE0AC-3DF7-4610-A824-7EC48BACB9BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7536180" y="558165"/>
+              <a:ext cx="174791" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51ACE0AC-3DF7-4610-A824-7EC48BACB9BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7536180" y="558165"/>
+              <a:ext cx="174791" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒_𝑥^0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100DAC4D-3923-422C-AD60-B53391337F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1176,17 +3175,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0650E363-E2C5-417C-A0D3-41941F45D018}">
   <dimension ref="B2:T23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625"/>
+    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +3205,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
@@ -1218,7 +3220,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1256,12 +3258,15 @@
         <v>12</v>
       </c>
       <c r="N4" s="8"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="20"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>0</v>
       </c>
@@ -1274,21 +3279,51 @@
       <c r="E5" s="11">
         <v>6684</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="23"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F5" s="12">
+        <f>E5/D5</f>
+        <v>3.6853451840742804E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <f>IF(F5&gt;=0.107,0.35,0.053+2.8*F5)</f>
+        <v>0.15618966515407984</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" ref="H5:H10" si="0">(C5*F5)/(1+(C5-G5)*F5)</f>
+        <v>3.574197216833902E-2</v>
+      </c>
+      <c r="I5" s="12">
+        <f>1-H5</f>
+        <v>0.96425802783166104</v>
+      </c>
+      <c r="J5" s="14">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K15" si="1">J5-J6</f>
+        <v>3574.197216833898</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" ref="L5:L11" si="2">C5*J6+G5*K5</f>
+        <v>96984.05544965803</v>
+      </c>
+      <c r="M5" s="14">
+        <f>M6+L5</f>
+        <v>6973898.5814585518</v>
+      </c>
+      <c r="N5" s="15">
+        <f>M5/J5</f>
+        <v>69.738985814585519</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22">
+        <f>J5*H5</f>
+        <v>3574.1972168339021</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -1301,22 +3336,54 @@
       <c r="E6" s="11">
         <v>4094</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F23" si="3">E6/D6</f>
+        <v>5.6623841486438077E-3</v>
+      </c>
+      <c r="G6" s="17">
+        <f>IF(F5&gt;=0.107,1.361,1.522-1.518*F5)</f>
+        <v>1.4660564601057524</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.2329154277619726E-2</v>
+      </c>
+      <c r="I6" s="12">
+        <f>1-H6</f>
+        <v>0.97767084572238028</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" ref="J6:J18" si="4">J5*I5</f>
+        <v>96425.802783166102</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="1"/>
+        <v>2153.1066266886482</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="2"/>
+        <v>380247.3605052632</v>
+      </c>
+      <c r="M6" s="14">
+        <f>M7+L6</f>
+        <v>6876914.5260088937</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" ref="N6:N23" si="5">M6/J6</f>
+        <v>71.318198319521343</v>
+      </c>
       <c r="P6" s="4"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="23"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q6" s="21">
+        <f>PRODUCT(I$5:I5)</f>
+        <v>0.96425802783166104</v>
+      </c>
+      <c r="R6" s="22">
+        <f t="shared" ref="R6:R23" si="6">J6*H6</f>
+        <v>2153.1066266886496</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -1329,22 +3396,54 @@
       <c r="E7" s="11">
         <v>720</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>8.9909079443412847E-4</v>
+      </c>
+      <c r="G7" s="12">
+        <f>C7*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>4.4853720803031119E-3</v>
+      </c>
+      <c r="I7" s="12">
+        <f>1-H7</f>
+        <v>0.99551462791969692</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="4"/>
+        <v>94272.696156477454</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="1"/>
+        <v>422.84811927516421</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="2"/>
+        <v>470306.36048419931</v>
+      </c>
+      <c r="M7" s="14">
+        <f>M8+L7</f>
+        <v>6496667.1655036304</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="5"/>
+        <v>68.913560663632779</v>
+      </c>
       <c r="P7" s="4"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="23"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q7" s="21">
+        <f>PRODUCT(I$5:I6)</f>
+        <v>0.94272696156477453</v>
+      </c>
+      <c r="R7" s="22">
+        <f t="shared" si="6"/>
+        <v>422.84811927516245</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>10</v>
       </c>
@@ -1357,22 +3456,54 @@
       <c r="E8" s="11">
         <v>501</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>7.0385730662890283E-4</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" ref="G8:G22" si="7">C8*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>3.5131047220755504E-3</v>
+      </c>
+      <c r="I8" s="12">
+        <f>1-H8</f>
+        <v>0.99648689527792444</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="4"/>
+        <v>93849.84803720229</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="1"/>
+        <v>329.70434430557361</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="2"/>
+        <v>468424.97932524752</v>
+      </c>
+      <c r="M8" s="14">
+        <f>M9+L8</f>
+        <v>6026360.8050194308</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="5"/>
+        <v>64.212792359882869</v>
+      </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="23"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q8" s="21">
+        <f>PRODUCT(I$5:I7)</f>
+        <v>0.93849848037202288</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" si="6"/>
+        <v>329.70434430556821</v>
+      </c>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>15</v>
       </c>
@@ -1385,22 +3516,54 @@
       <c r="E9" s="11">
         <v>650</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0193168381732588E-3</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>5.0836296176954114E-3</v>
+      </c>
+      <c r="I9" s="12">
+        <f>1-H9</f>
+        <v>0.99491637038230463</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="4"/>
+        <v>93520.143692896716</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="1"/>
+        <v>475.42177232833637</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="2"/>
+        <v>466412.16403366276</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" ref="M9:M19" si="8">M10+L9</f>
+        <v>5557935.8256941829</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="5"/>
+        <v>59.430360200743934</v>
+      </c>
       <c r="P9" s="4"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="23"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q9" s="21">
+        <f>PRODUCT(I$5:I8)</f>
+        <v>0.93520143692896718</v>
+      </c>
+      <c r="R9" s="22">
+        <f t="shared" si="6"/>
+        <v>475.42177232834047</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>20</v>
       </c>
@@ -1413,22 +3576,54 @@
       <c r="E10" s="11">
         <v>767</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>1.4609050754546995E-3</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>7.2779444124459487E-3</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" ref="I10:I23" si="9">1-H10</f>
+        <v>0.992722055587554</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="4"/>
+        <v>93044.72192056838</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="1"/>
+        <v>677.17431400938949</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="2"/>
+        <v>463530.67381781846</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="8"/>
+        <v>5091523.6616605204</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="5"/>
+        <v>54.721251851417406</v>
+      </c>
       <c r="P10" s="4"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="23"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q10" s="21">
+        <f>PRODUCT(I$5:I9)</f>
+        <v>0.93044721920568385</v>
+      </c>
+      <c r="R10" s="22">
+        <f t="shared" si="6"/>
+        <v>677.17431400938767</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>25</v>
       </c>
@@ -1441,22 +3636,54 @@
       <c r="E11" s="11">
         <v>789</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>1.8931032497072767E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" ref="H11:H22" si="10">(C11*F11)/(1+(C11-G11)*F11)</f>
+        <v>9.4209292690003651E-3</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="9"/>
+        <v>0.9905790707309996</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="4"/>
+        <v>92367.54760655899</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="1"/>
+        <v>870.188132752417</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="2"/>
+        <v>459662.26770091389</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" ref="M11:M18" si="11">M12+L11</f>
+        <v>4627992.9878427023</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="5"/>
+        <v>50.10410157857293</v>
+      </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q11" s="21">
+        <f>PRODUCT(I$5:I10)</f>
+        <v>0.92367547606558997</v>
+      </c>
+      <c r="R11" s="22">
+        <f t="shared" si="6"/>
+        <v>870.18813275241621</v>
+      </c>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>30</v>
       </c>
@@ -1469,22 +3696,54 @@
       <c r="E12" s="11">
         <v>786</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>2.3472145491466711E-3</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="10"/>
+        <v>1.1667606804619542E-2</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="9"/>
+        <v>0.98833239319538047</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="4"/>
+        <v>91497.359473806573</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="1"/>
+        <v>1067.5552140013024</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" ref="L12:L21" si="12">C12*J13+G12*K12</f>
+        <v>454817.90933402959</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="11"/>
+        <v>4168330.7201417885</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="5"/>
+        <v>45.556841684978664</v>
+      </c>
       <c r="P12" s="4"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="23"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q12" s="21">
+        <f>PRODUCT(I$5:I11)</f>
+        <v>0.91497359473806583</v>
+      </c>
+      <c r="R12" s="22">
+        <f t="shared" si="6"/>
+        <v>1067.5552140013058</v>
+      </c>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>35</v>
       </c>
@@ -1497,22 +3756,54 @@
       <c r="E13" s="11">
         <v>798</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>2.8750333258875495E-3</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="10"/>
+        <v>1.4272581262497452E-2</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="9"/>
+        <v>0.98572741873750258</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="4"/>
+        <v>90429.804259805271</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="1"/>
+        <v>1290.6667298498069</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="12"/>
+        <v>448922.35447440186</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="11"/>
+        <v>3713512.8108077589</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="5"/>
+        <v>41.065142639685675</v>
+      </c>
       <c r="P13" s="4"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="23"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q13" s="21">
+        <f>PRODUCT(I$5:I12)</f>
+        <v>0.9042980425980528</v>
+      </c>
+      <c r="R13" s="22">
+        <f t="shared" si="6"/>
+        <v>1290.6667298498089</v>
+      </c>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>40</v>
       </c>
@@ -1525,22 +3816,54 @@
       <c r="E14" s="11">
         <v>876</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>3.633332089041522E-3</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="10"/>
+        <v>1.8003132051740506E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="9"/>
+        <v>0.98199686794825947</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="4"/>
+        <v>89139.137529955464</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="1"/>
+        <v>1604.7836639300513</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="12"/>
+        <v>441683.72848995216</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="11"/>
+        <v>3264590.4563333569</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="5"/>
+        <v>36.623536493566384</v>
+      </c>
       <c r="P14" s="4"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="23"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q14" s="21">
+        <f>PRODUCT(I$5:I13)</f>
+        <v>0.8913913752995547</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="6"/>
+        <v>1604.7836639300463</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>45</v>
       </c>
@@ -1553,22 +3876,54 @@
       <c r="E15" s="11">
         <v>937</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>4.7615175876332665E-3</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="10"/>
+        <v>2.3527521173513588E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="9"/>
+        <v>0.97647247882648647</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="4"/>
+        <v>87534.353866025413</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="1"/>
+        <v>2059.4663639927458</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="12"/>
+        <v>432523.10342014523</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="11"/>
+        <v>2822906.7278434047</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="5"/>
+        <v>32.249129663582927</v>
+      </c>
       <c r="P15" s="4"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="23"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q15" s="21">
+        <f>PRODUCT(I$5:I14)</f>
+        <v>0.87534353866025416</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="6"/>
+        <v>2059.4663639927439</v>
+      </c>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>50</v>
       </c>
@@ -1581,22 +3936,54 @@
       <c r="E16" s="11">
         <v>1017</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>6.9539412504786386E-3</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="10"/>
+        <v>3.4175569004741564E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="9"/>
+        <v>0.96582443099525839</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="4"/>
+        <v>85474.887502032667</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" ref="K16:K22" si="13">J16-J17</f>
+        <v>2921.1529159982456</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="12"/>
+        <v>420071.55522016773</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="11"/>
+        <v>2390383.6244232594</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="5"/>
+        <v>27.965917174987965</v>
+      </c>
       <c r="P16" s="4"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="23"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q16" s="21">
+        <f>PRODUCT(I$5:I15)</f>
+        <v>0.85474887502032681</v>
+      </c>
+      <c r="R16" s="22">
+        <f t="shared" si="6"/>
+        <v>2921.1529159982397</v>
+      </c>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>55</v>
       </c>
@@ -1609,22 +3996,54 @@
       <c r="E17" s="11">
         <v>1247</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0025324597017325E-2</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="10"/>
+        <v>4.8901001941138403E-2</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="9"/>
+        <v>0.95109899805886156</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="4"/>
+        <v>82553.734586034421</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="13"/>
+        <v>4036.960335239899</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="12"/>
+        <v>402676.27209207241</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="11"/>
+        <v>1970312.0692030918</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="5"/>
+        <v>23.86702526643063</v>
+      </c>
       <c r="P17" s="4"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="23"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q17" s="21">
+        <f>PRODUCT(I$5:I16)</f>
+        <v>0.82553734586034433</v>
+      </c>
+      <c r="R17" s="22">
+        <f t="shared" si="6"/>
+        <v>4036.9603352398935</v>
+      </c>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>60</v>
       </c>
@@ -1637,22 +4056,54 @@
       <c r="E18" s="11">
         <v>1687</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>1.5720662373847973E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="10"/>
+        <v>7.5630892552127932E-2</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="9"/>
+        <v>0.92436910744787204</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="4"/>
+        <v>78516.774250794522</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="13"/>
+        <v>5938.2937169015349</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="12"/>
+        <v>377738.13696171879</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="11"/>
+        <v>1567635.7971110193</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="5"/>
+        <v>19.965616418521627</v>
+      </c>
       <c r="P18" s="4"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="23"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q18" s="21">
+        <f>PRODUCT(I$5:I17)</f>
+        <v>0.7851677425079453</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="6"/>
+        <v>5938.2937169015258</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>65</v>
       </c>
@@ -1665,22 +4116,54 @@
       <c r="E19" s="11">
         <v>2001</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
+      <c r="F19" s="12">
+        <f t="shared" si="3"/>
+        <v>2.2187971258759868E-2</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="10"/>
+        <v>0.10510944304076733</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="9"/>
+        <v>0.8948905569592327</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" ref="J19:J23" si="14">J18*I18</f>
+        <v>72578.480533892987</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="13"/>
+        <v>7628.683665662662</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="12"/>
+        <v>343820.69350530824</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="8"/>
+        <v>1189897.6601493005</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="5"/>
+        <v>16.394634489401266</v>
+      </c>
       <c r="P19" s="4"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="23"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q19" s="21">
+        <f>PRODUCT(I$5:I18)</f>
+        <v>0.72578480533892997</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="6"/>
+        <v>7628.6836656626656</v>
+      </c>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>70</v>
       </c>
@@ -1693,22 +4176,54 @@
       <c r="E20" s="11">
         <v>2186</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
+      <c r="F20" s="12">
+        <f t="shared" si="3"/>
+        <v>3.2846989526829046E-2</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="10"/>
+        <v>0.15177182848255941</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="9"/>
+        <v>0.84822817151744057</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="14"/>
+        <v>64949.796868230325</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="13"/>
+        <v>9857.54943026213</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="12"/>
+        <v>300105.11076549633</v>
+      </c>
+      <c r="M20" s="14">
+        <f>M21+L20</f>
+        <v>846076.96664399235</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="5"/>
+        <v>13.026629911722544</v>
+      </c>
       <c r="P20" s="4"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="23"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q20" s="21">
+        <f>PRODUCT(I$5:I19)</f>
+        <v>0.64949796868230336</v>
+      </c>
+      <c r="R20" s="22">
+        <f t="shared" si="6"/>
+        <v>9857.5494302621264</v>
+      </c>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>75</v>
       </c>
@@ -1721,22 +4236,54 @@
       <c r="E21" s="11">
         <v>2313</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
+      <c r="F21" s="12">
+        <f t="shared" si="3"/>
+        <v>5.7543039108368992E-2</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="10"/>
+        <v>0.25153060669660821</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="9"/>
+        <v>0.74846939330339179</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="14"/>
+        <v>55092.247437968195</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="13"/>
+        <v>13857.386422351796</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="12"/>
+        <v>240817.77113396148</v>
+      </c>
+      <c r="M21" s="14">
+        <f>M22+L21</f>
+        <v>545971.85587849608</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="5"/>
+        <v>9.9101394709526041</v>
+      </c>
       <c r="P21" s="4"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="23"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q21" s="21">
+        <f>PRODUCT(I$5:I20)</f>
+        <v>0.550922474379682</v>
+      </c>
+      <c r="R21" s="22">
+        <f t="shared" si="6"/>
+        <v>13857.386422351799</v>
+      </c>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>80</v>
       </c>
@@ -1749,22 +4296,54 @@
       <c r="E22" s="11">
         <v>2064</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
+      <c r="F22" s="12">
+        <f t="shared" si="3"/>
+        <v>0.10126085463376343</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="10"/>
+        <v>0.40402458599224833</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="9"/>
+        <v>0.59597541400775167</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="14"/>
+        <v>41234.8610156164</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="13"/>
+        <v>16659.897650282317</v>
+      </c>
+      <c r="L22" s="14">
+        <f>C22*J23+G22*K22</f>
+        <v>164524.56095237623</v>
+      </c>
+      <c r="M22" s="14">
+        <f>M23+L22</f>
+        <v>305154.08474453463</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="5"/>
+        <v>7.4003907671464484</v>
+      </c>
       <c r="P22" s="4"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="23"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q22" s="21">
+        <f>PRODUCT(I$5:I21)</f>
+        <v>0.41234861015616397</v>
+      </c>
+      <c r="R22" s="22">
+        <f t="shared" si="6"/>
+        <v>16659.897650282317</v>
+      </c>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
@@ -1775,20 +4354,48 @@
       <c r="E23" s="11">
         <v>2007</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="12">
+        <f t="shared" si="3"/>
+        <v>0.17474967348715717</v>
+      </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="14"/>
+        <v>24574.963365334082</v>
+      </c>
+      <c r="K23" s="14">
+        <f>J23-J24</f>
+        <v>24574.963365334082</v>
+      </c>
+      <c r="L23" s="19">
+        <f>J23/F23</f>
+        <v>140629.5237921584</v>
+      </c>
+      <c r="M23" s="14">
+        <f>L23</f>
+        <v>140629.5237921584</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="5"/>
+        <v>5.7224713502740405</v>
+      </c>
       <c r="P23" s="4"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="23"/>
+      <c r="Q23" s="21">
+        <f>PRODUCT(I$5:I22)</f>
+        <v>0.24574963365334082</v>
+      </c>
+      <c r="R23" s="22">
+        <f t="shared" si="6"/>
+        <v>24574.963365334082</v>
+      </c>
+      <c r="T23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1797,27 +4404,1257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91440F76-9B8D-4519-BF0C-1F1AB4AAAFBA}">
+  <dimension ref="B2:T23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="14" width="8.5546875" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="Q4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="20"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>181367</v>
+      </c>
+      <c r="E5" s="11">
+        <v>6684</v>
+      </c>
+      <c r="F5" s="12">
+        <f>E5/D5</f>
+        <v>3.6853451840742804E-2</v>
+      </c>
+      <c r="G5" s="17">
+        <f>IF(F5&gt;=0.107,0.35,0.053+2.8*F5)</f>
+        <v>0.15618966515407984</v>
+      </c>
+      <c r="H5" s="23">
+        <v>4.4040000000000003E-2</v>
+      </c>
+      <c r="I5" s="12">
+        <f>1-H5</f>
+        <v>0.95596000000000003</v>
+      </c>
+      <c r="J5" s="14">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K22" si="0">J5-J6</f>
+        <v>4404</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" ref="L5:L21" si="1">C5*J6+G5*K5</f>
+        <v>96283.859285338563</v>
+      </c>
+      <c r="M5" s="14">
+        <f>M6+L5</f>
+        <v>6914018.3458383009</v>
+      </c>
+      <c r="N5" s="15">
+        <f>M5/J5</f>
+        <v>69.140183458383007</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22">
+        <f>J5*H5</f>
+        <v>4404</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>723017</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4094</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F23" si="2">E6/D6</f>
+        <v>5.6623841486438077E-3</v>
+      </c>
+      <c r="G6" s="17">
+        <f>IF(F5&gt;=0.107,1.361,1.522-1.518*F5)</f>
+        <v>1.4660564601057524</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H5:H22" si="3">(C6*F6)/(1+(C6-G6)*F6)</f>
+        <v>2.2329154277619726E-2</v>
+      </c>
+      <c r="I6" s="12">
+        <f>1-H6</f>
+        <v>0.97767084572238028</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" ref="J6:J23" si="4">J5*I5</f>
+        <v>95596</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>2134.577832323339</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="1"/>
+        <v>376975.10029138281</v>
+      </c>
+      <c r="M6" s="14">
+        <f>M7+L6</f>
+        <v>6817734.4865529621</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" ref="N6:N23" si="5">M6/J6</f>
+        <v>71.318198319521343</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="21">
+        <f>PRODUCT(I$5:I5)</f>
+        <v>0.95596000000000003</v>
+      </c>
+      <c r="R6" s="22">
+        <f t="shared" ref="R6:R23" si="6">J6*H6</f>
+        <v>2134.5778323233353</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>800809</v>
+      </c>
+      <c r="E7" s="11">
+        <v>720</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="2"/>
+        <v>8.9909079443412847E-4</v>
+      </c>
+      <c r="G7" s="12">
+        <f>C7*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="3"/>
+        <v>4.4853720803031119E-3</v>
+      </c>
+      <c r="I7" s="12">
+        <f>1-H7</f>
+        <v>0.99551462791969692</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="4"/>
+        <v>93461.422167676661</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>419.20925357632223</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="1"/>
+        <v>466259.0877044425</v>
+      </c>
+      <c r="M7" s="14">
+        <f>M8+L7</f>
+        <v>6440759.3862615796</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="5"/>
+        <v>68.913560663632779</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="21">
+        <f>PRODUCT(I$5:I6)</f>
+        <v>0.93461422167676667</v>
+      </c>
+      <c r="R7" s="22">
+        <f t="shared" si="6"/>
+        <v>419.20925357631921</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>711792</v>
+      </c>
+      <c r="E8" s="11">
+        <v>501</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="2"/>
+        <v>7.0385730662890283E-4</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" ref="G8:G22" si="7">C8*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="3"/>
+        <v>3.5131047220755504E-3</v>
+      </c>
+      <c r="I8" s="12">
+        <f>1-H8</f>
+        <v>0.99648689527792444</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="4"/>
+        <v>93042.212914100339</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>326.86703754088376</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="1"/>
+        <v>464393.89697664947</v>
+      </c>
+      <c r="M8" s="14">
+        <f>M9+L8</f>
+        <v>5974500.2985571371</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="5"/>
+        <v>64.212792359882869</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="21">
+        <f>PRODUCT(I$5:I7)</f>
+        <v>0.93042212914100353</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" si="6"/>
+        <v>326.86703754088467</v>
+      </c>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>637682</v>
+      </c>
+      <c r="E9" s="11">
+        <v>650</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0193168381732588E-3</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="3"/>
+        <v>5.0836296176954114E-3</v>
+      </c>
+      <c r="I9" s="12">
+        <f>1-H9</f>
+        <v>0.99491637038230463</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="4"/>
+        <v>92715.345876559455</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>471.33047831294243</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="1"/>
+        <v>462398.40318701492</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" ref="M9:M19" si="8">M10+L9</f>
+        <v>5510106.4015804874</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="5"/>
+        <v>59.430360200743934</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="21">
+        <f>PRODUCT(I$5:I8)</f>
+        <v>0.92715345876559463</v>
+      </c>
+      <c r="R9" s="22">
+        <f t="shared" si="6"/>
+        <v>471.33047831295175</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>525017</v>
+      </c>
+      <c r="E10" s="11">
+        <v>767</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4609050754546995E-3</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="3"/>
+        <v>7.2779444124459487E-3</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" ref="I10:I23" si="9">1-H10</f>
+        <v>0.992722055587554</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="4"/>
+        <v>92244.015398246513</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>671.34681644925149</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="1"/>
+        <v>459541.70995010948</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="8"/>
+        <v>5047707.9983934723</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="5"/>
+        <v>54.721251851417399</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="21">
+        <f>PRODUCT(I$5:I9)</f>
+        <v>0.92244015398246515</v>
+      </c>
+      <c r="R10" s="22">
+        <f t="shared" si="6"/>
+        <v>671.34681644924626</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>25</v>
+      </c>
+      <c r="C11" s="16">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>416776</v>
+      </c>
+      <c r="E11" s="11">
+        <v>789</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="2"/>
+        <v>1.8931032497072767E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="3"/>
+        <v>9.4209292690003651E-3</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="9"/>
+        <v>0.9905790707309996</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="4"/>
+        <v>91572.668581797261</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>862.69963368272875</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="1"/>
+        <v>455706.5938247795</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="8"/>
+        <v>4588166.2884433633</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="5"/>
+        <v>50.104101578572923</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="21">
+        <f>PRODUCT(I$5:I10)</f>
+        <v>0.91572668581797267</v>
+      </c>
+      <c r="R11" s="22">
+        <f t="shared" si="6"/>
+        <v>862.69963368272397</v>
+      </c>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>30</v>
+      </c>
+      <c r="C12" s="16">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>334865</v>
+      </c>
+      <c r="E12" s="11">
+        <v>786</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="2"/>
+        <v>2.3472145491466711E-3</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="3"/>
+        <v>1.1667606804619542E-2</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="9"/>
+        <v>0.98833239319538047</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="4"/>
+        <v>90709.968948114532</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>1058.3682509458449</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="1"/>
+        <v>450903.92411320802</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="8"/>
+        <v>4132459.6946185841</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="5"/>
+        <v>45.556841684978664</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="21">
+        <f>PRODUCT(I$5:I11)</f>
+        <v>0.90709968948114539</v>
+      </c>
+      <c r="R12" s="22">
+        <f t="shared" si="6"/>
+        <v>1058.3682509458483</v>
+      </c>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>35</v>
+      </c>
+      <c r="C13" s="16">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>277562</v>
+      </c>
+      <c r="E13" s="11">
+        <v>798</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="2"/>
+        <v>2.8750333258875495E-3</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="3"/>
+        <v>1.4272581262497452E-2</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="9"/>
+        <v>0.98572741873750258</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="4"/>
+        <v>89651.600697168687</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>1279.5597562633047</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="1"/>
+        <v>445059.10409518518</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="8"/>
+        <v>3681555.7705053762</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="5"/>
+        <v>41.065142639685675</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="21">
+        <f>PRODUCT(I$5:I12)</f>
+        <v>0.89651600697168687</v>
+      </c>
+      <c r="R13" s="22">
+        <f t="shared" si="6"/>
+        <v>1279.5597562633134</v>
+      </c>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>40</v>
+      </c>
+      <c r="C14" s="16">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>241101</v>
+      </c>
+      <c r="E14" s="11">
+        <v>876</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="2"/>
+        <v>3.633332089041522E-3</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="3"/>
+        <v>1.8003132051740506E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="9"/>
+        <v>0.98199686794825947</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="4"/>
+        <v>88372.040940905383</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>1590.9735227409401</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="1"/>
+        <v>437882.77089767461</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="8"/>
+        <v>3236496.666410191</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="5"/>
+        <v>36.623536493566384</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="21">
+        <f>PRODUCT(I$5:I13)</f>
+        <v>0.88372040940905372</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="6"/>
+        <v>1590.9735227409378</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>45</v>
+      </c>
+      <c r="C15" s="16">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>196786</v>
+      </c>
+      <c r="E15" s="11">
+        <v>937</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="2"/>
+        <v>4.7615175876332665E-3</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="3"/>
+        <v>2.3527521173513588E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="9"/>
+        <v>0.97647247882648647</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="4"/>
+        <v>86781.067418164443</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="0"/>
+        <v>2041.7434011409641</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="1"/>
+        <v>428800.97858796979</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="8"/>
+        <v>2798613.8955125166</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="5"/>
+        <v>32.249129663582927</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="21">
+        <f>PRODUCT(I$5:I14)</f>
+        <v>0.86781067418164437</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="6"/>
+        <v>2041.7434011409741</v>
+      </c>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>50</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>146248</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1017</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>6.9539412504786386E-3</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="3"/>
+        <v>3.4175569004741564E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="9"/>
+        <v>0.96582443099525839</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="4"/>
+        <v>84739.324017023479</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="0"/>
+        <v>2896.0146153589449</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="1"/>
+        <v>416456.58354672004</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="8"/>
+        <v>2369812.9169245469</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="5"/>
+        <v>27.965917174987965</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="21">
+        <f>PRODUCT(I$5:I15)</f>
+        <v>0.84739324017023465</v>
+      </c>
+      <c r="R16" s="22">
+        <f t="shared" si="6"/>
+        <v>2896.0146153589399</v>
+      </c>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>55</v>
+      </c>
+      <c r="C17" s="16">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>124385</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1247</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0025324597017325E-2</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="3"/>
+        <v>4.8901001941138403E-2</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="9"/>
+        <v>0.95109899805886156</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="4"/>
+        <v>81843.309401664534</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="0"/>
+        <v>4002.2198319199961</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="1"/>
+        <v>399210.99742852268</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="8"/>
+        <v>1953356.333377827</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="5"/>
+        <v>23.86702526643063</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="21">
+        <f>PRODUCT(I$5:I16)</f>
+        <v>0.81843309401664521</v>
+      </c>
+      <c r="R17" s="22">
+        <f t="shared" si="6"/>
+        <v>4002.2198319199883</v>
+      </c>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>107311</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1687</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5720662373847973E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="3"/>
+        <v>7.5630892552127932E-2</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="9"/>
+        <v>0.92436910744787204</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="4"/>
+        <v>77841.089569744538</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="0"/>
+        <v>5887.1910813899158</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="1"/>
+        <v>374487.47014524793</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="8"/>
+        <v>1554145.3359493043</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="5"/>
+        <v>19.96561641852163</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="21">
+        <f>PRODUCT(I$5:I17)</f>
+        <v>0.77841089569744526</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="6"/>
+        <v>5887.1910813899158</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>65</v>
+      </c>
+      <c r="C19" s="16">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>90184</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2001</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="2"/>
+        <v>2.2187971258759868E-2</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="3"/>
+        <v>0.10510944304076733</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="9"/>
+        <v>0.8948905569592327</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="4"/>
+        <v>71953.898488354622</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>7563.0341947228662</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="1"/>
+        <v>340861.90695496596</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="8"/>
+        <v>1179657.8658040564</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="5"/>
+        <v>16.394634489401266</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="21">
+        <f>PRODUCT(I$5:I18)</f>
+        <v>0.71953898488354606</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="6"/>
+        <v>7563.0341947228644</v>
+      </c>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <v>70</v>
+      </c>
+      <c r="C20" s="16">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>66551</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2186</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="2"/>
+        <v>3.2846989526829046E-2</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="3"/>
+        <v>0.15177182848255941</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="9"/>
+        <v>0.84822817151744057</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="4"/>
+        <v>64390.864293631756</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>9772.7192114168429</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="1"/>
+        <v>297522.52343961666</v>
+      </c>
+      <c r="M20" s="14">
+        <f>M21+L20</f>
+        <v>838795.9588490905</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="5"/>
+        <v>13.026629911722543</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="21">
+        <f>PRODUCT(I$5:I19)</f>
+        <v>0.64390864293631744</v>
+      </c>
+      <c r="R20" s="22">
+        <f t="shared" si="6"/>
+        <v>9772.7192114168374</v>
+      </c>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>75</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>40196</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2313</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7543039108368992E-2</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="3"/>
+        <v>0.25153060669660821</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="9"/>
+        <v>0.74846939330339179</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="4"/>
+        <v>54618.145082214913</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>13738.135169172885</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="1"/>
+        <v>238745.38748814235</v>
+      </c>
+      <c r="M21" s="14">
+        <f>M22+L21</f>
+        <v>541273.43540947384</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="5"/>
+        <v>9.9101394709526041</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="21">
+        <f>PRODUCT(I$5:I20)</f>
+        <v>0.54618145082214908</v>
+      </c>
+      <c r="R21" s="22">
+        <f t="shared" si="6"/>
+        <v>13738.135169172885</v>
+      </c>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>80</v>
+      </c>
+      <c r="C22" s="16">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>20383</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2064</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.10126085463376343</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="3"/>
+        <v>0.40402458599224833</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="9"/>
+        <v>0.59597541400775167</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="4"/>
+        <v>40880.009913042028</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="0"/>
+        <v>16516.529080475811</v>
+      </c>
+      <c r="L22" s="14">
+        <f>C22*J23+G22*K22</f>
+        <v>163108.7268640206</v>
+      </c>
+      <c r="M22" s="14">
+        <f>M23+L22</f>
+        <v>302528.04792133148</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="5"/>
+        <v>7.4003907671464475</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="21">
+        <f>PRODUCT(I$5:I21)</f>
+        <v>0.40880009913042026</v>
+      </c>
+      <c r="R22" s="22">
+        <f t="shared" si="6"/>
+        <v>16516.529080475811</v>
+      </c>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="10">
+        <v>11485</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2007</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.17474967348715717</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="4"/>
+        <v>24363.480832566216</v>
+      </c>
+      <c r="K23" s="14">
+        <f>J23-J24</f>
+        <v>24363.480832566216</v>
+      </c>
+      <c r="L23" s="19">
+        <f>J23/F23</f>
+        <v>139419.32105731091</v>
+      </c>
+      <c r="M23" s="14">
+        <f>L23</f>
+        <v>139419.32105731091</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="5"/>
+        <v>5.7224713502740405</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="21">
+        <f>PRODUCT(I$5:I22)</f>
+        <v>0.24363480832566214</v>
+      </c>
+      <c r="R23" s="22">
+        <f t="shared" si="6"/>
+        <v>24363.480832566216</v>
+      </c>
+      <c r="T23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C26B4E-4731-4A78-91BB-D3F2FE61B06B}">
   <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="8.5703125" style="5" customWidth="1"/>
-    <col min="4" max="14" width="8.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="3" width="8.5546875" style="5" customWidth="1"/>
+    <col min="4" max="14" width="8.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1856,7 +5693,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>0</v>
       </c>
@@ -1880,7 +5717,7 @@
       <c r="N5" s="15"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -1904,7 +5741,7 @@
       <c r="N6" s="15"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -1928,7 +5765,7 @@
       <c r="N7" s="15"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>10</v>
       </c>
@@ -1952,7 +5789,7 @@
       <c r="N8" s="15"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>15</v>
       </c>
@@ -1976,7 +5813,7 @@
       <c r="N9" s="15"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>20</v>
       </c>
@@ -2000,7 +5837,7 @@
       <c r="N10" s="15"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>25</v>
       </c>
@@ -2024,7 +5861,7 @@
       <c r="N11" s="15"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>30</v>
       </c>
@@ -2048,7 +5885,7 @@
       <c r="N12" s="15"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>35</v>
       </c>
@@ -2072,7 +5909,7 @@
       <c r="N13" s="15"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>40</v>
       </c>
@@ -2096,7 +5933,7 @@
       <c r="N14" s="15"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>45</v>
       </c>
@@ -2120,7 +5957,7 @@
       <c r="N15" s="15"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>50</v>
       </c>
@@ -2144,7 +5981,7 @@
       <c r="N16" s="15"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>55</v>
       </c>
@@ -2168,7 +6005,7 @@
       <c r="N17" s="15"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>60</v>
       </c>
@@ -2192,7 +6029,7 @@
       <c r="N18" s="15"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>65</v>
       </c>
@@ -2217,7 +6054,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>70</v>
       </c>
@@ -2241,7 +6078,7 @@
       <c r="N20" s="15"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>75</v>
       </c>
@@ -2265,7 +6102,7 @@
       <c r="N21" s="15"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>80</v>
       </c>
@@ -2289,7 +6126,7 @@
       <c r="N22" s="15"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
